--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_1_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_1_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[3.4554096505813185, 3.99078943368755]</t>
+          <t>[3.4668957838139365, 3.979303300454932]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,14 +617,14 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.3372521060833251, 0.6323103486629411]</t>
+          <t>[0.3371319976668916, 0.6324304570793746]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>3.758796274233589e-08</v>
+        <v>3.828737660249715e-08</v>
       </c>
       <c r="V2" t="n">
-        <v>3.758796274233589e-08</v>
+        <v>3.828737660249715e-08</v>
       </c>
       <c r="W2" t="n">
         <v>4.435595595595704</v>
